--- a/public/file/template-excel-employee/template-excel-employee.xlsx
+++ b/public/file/template-excel-employee/template-excel-employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-employee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF34D78-4953-48D8-973A-41E8C58DCA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394B5DE7-F280-4613-8F34-DEB8493E6087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1083,24 +1083,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
     <col min="13" max="13" width="22.42578125" style="4" customWidth="1"/>
     <col min="14" max="14" width="16.140625" style="4" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
@@ -1117,41 +1117,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>29</v>
@@ -1194,41 +1194,41 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16">
+      <c r="F2" s="16">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>9</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>10</v>
@@ -1269,18 +1269,18 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="19"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="7"/>
@@ -1296,18 +1296,18 @@
       <c r="Y3" s="11"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="19"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="7"/>
@@ -1323,27 +1323,27 @@
       <c r="Y4" s="11"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+      <c r="A5" s="20"/>
       <c r="C5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="20"/>
+      <c r="D5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="3"/>
       <c r="S5" s="1"/>
       <c r="T5" s="13"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+      <c r="A6" s="20"/>
       <c r="C6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="20"/>
+      <c r="D6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="3"/>
       <c r="S6" s="1"/>
       <c r="T6" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{8D606A35-DCC3-A740-B7FD-2D7C339BC36B}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{8D606A35-DCC3-A740-B7FD-2D7C339BC36B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
